--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154009.853827614</v>
+        <v>155225.6872014186</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654757</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357858</v>
+        <v>9802884.450357867</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5439795.793211116</v>
+        <v>5427826.69811297</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.1496567124883</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>109.7290404931421</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392506</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
         <v>93.11323406457203</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>152.1828024605633</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>74.07925546865125</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +898,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>111.5422858787864</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>134.7225672403008</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>156.8000240729685</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>29.87840093348654</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>143.4324547506685</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>278.4816097542803</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>22.26382903593143</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>106.3192265349076</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>143.4324547506685</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.66266823451896</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.26382903593143</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>251.8370517432258</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>71.771323990944</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>92.5019652318651</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1853,13 +1855,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>111.5422858787864</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>127.6670518770817</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21.65855500754449</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2089,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>79.11076185954803</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>111.5422858787863</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.273021497943</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2324,10 +2326,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>92.38090300811169</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>58.67748875058492</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348486</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429422</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>354.9160107706717</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>24.1295862066214</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.94722270604644</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2731,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>83.16998215187643</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>282.3285331495479</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>104.2359840969296</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.5078571639463</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3038,10 +3040,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.06062145565716</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>71.94762989914831</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429482</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>79.2547569566326</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>71.94762989914921</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3478,19 +3480,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>218.0080577057878</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.88019932606119</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>203.0845722362934</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.889370838166728</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3566,10 +3568,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811976</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.3194424311367</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.17128642851841</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>120.7719441066429</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3943,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>146.3034971231914</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>146.4310746974858</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>212.4740551539266</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4153,7 +4155,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>51.16397888403768</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.91199246082674</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>357.6855680512417</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N2" t="n">
-        <v>814.4714747539724</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P2" t="n">
         <v>1728.043288159434</v>
@@ -4352,28 +4354,28 @@
         <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T2" t="n">
-        <v>1631.30704050347</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U2" t="n">
-        <v>1631.30704050347</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V2" t="n">
-        <v>1273.817625629719</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W2" t="n">
-        <v>1273.817625629719</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="X2" t="n">
-        <v>862.0976267974665</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Y2" t="n">
-        <v>456.7603567523568</v>
+        <v>1734.762208401799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J3" t="n">
         <v>308.6094817404178</v>
@@ -4413,31 +4415,31 @@
         <v>308.6094817404178</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431487</v>
+        <v>765.3953884431485</v>
       </c>
       <c r="M3" t="n">
-        <v>1222.18129514588</v>
+        <v>1222.181295145879</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.840554349397</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C4" t="n">
         <v>948.1205518639796</v>
@@ -4483,55 +4485,55 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W4" t="n">
-        <v>1570.74721921385</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X4" t="n">
-        <v>1328.183322659655</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="5">
@@ -4544,34 +4546,34 @@
         <v>1425.751258749807</v>
       </c>
       <c r="C5" t="n">
-        <v>1425.751258749807</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D5" t="n">
-        <v>1002.458637934807</v>
+        <v>575.557907948107</v>
       </c>
       <c r="E5" t="n">
-        <v>1002.458637934807</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="F5" t="n">
-        <v>577.3344561242072</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>172.9953937136559</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M5" t="n">
         <v>1271.957808655251</v>
@@ -4626,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253902</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.1876416907185</v>
+        <v>405.2109393551519</v>
       </c>
       <c r="C7" t="n">
-        <v>943.1876416907185</v>
+        <v>405.2109393551519</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>405.2109393551519</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>405.2109393551519</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>233.3491651297123</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>67.09219542394445</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>67.09219542394445</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O7" t="n">
         <v>1555.000411119436</v>
@@ -4750,25 +4752,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U7" t="n">
-        <v>1602.260275267237</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>1602.260275267237</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W7" t="n">
-        <v>1602.260275267237</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X7" t="n">
-        <v>1359.696378713042</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="Y7" t="n">
-        <v>1133.353610402784</v>
+        <v>595.3769080672175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>739.1194333973433</v>
+        <v>608.6939898724443</v>
       </c>
       <c r="C8" t="n">
-        <v>739.1194333973433</v>
+        <v>181.7932598857444</v>
       </c>
       <c r="D8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
@@ -4811,19 +4813,19 @@
         <v>1313.087264683184</v>
       </c>
       <c r="M8" t="n">
-        <v>1388.813716338606</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N8" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4844,10 +4846,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X8" t="n">
-        <v>1564.305067733983</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1158.967797688873</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L9" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>59.40070865873727</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>263.4395936666639</v>
@@ -4969,10 +4971,10 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
         <v>1555.000411119436</v>
@@ -4984,28 +4986,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627428</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>718.4733422352558</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>475.9094456810609</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>249.5666773708029</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>608.6939898724443</v>
+      </c>
+      <c r="C11" t="n">
+        <v>181.7932598857444</v>
+      </c>
+      <c r="D11" t="n">
+        <v>181.7932598857444</v>
+      </c>
+      <c r="E11" t="n">
+        <v>181.7932598857444</v>
+      </c>
+      <c r="F11" t="n">
+        <v>181.7932598857444</v>
+      </c>
+      <c r="G11" t="n">
+        <v>181.7932598857444</v>
+      </c>
+      <c r="H11" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="J11" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36.91199246082673</v>
+      </c>
+      <c r="L11" t="n">
+        <v>493.6978991635576</v>
+      </c>
+      <c r="M11" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1388.813716338606</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1388.813716338606</v>
+      </c>
+      <c r="P11" t="n">
         <v>1845.599623041337</v>
       </c>
-      <c r="C11" t="n">
-        <v>1418.698893054637</v>
-      </c>
-      <c r="D11" t="n">
-        <v>995.4062722396372</v>
-      </c>
-      <c r="E11" t="n">
-        <v>569.4293323874948</v>
-      </c>
-      <c r="F11" t="n">
-        <v>144.305150576895</v>
-      </c>
-      <c r="G11" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="H11" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="J11" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="K11" t="n">
-        <v>493.6978991635576</v>
-      </c>
-      <c r="L11" t="n">
-        <v>814.4714747539724</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1271.257381456703</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1271.257381456703</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1728.043288159434</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1728.043288159434</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5081,10 +5083,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>1028.542354163974</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L12" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M12" t="n">
-        <v>765.3953884431487</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N12" t="n">
-        <v>1222.18129514588</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O12" t="n">
         <v>1388.813716338606</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.91199246082674</v>
+        <v>59.40070865873727</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>263.4395936666639</v>
@@ -5221,28 +5223,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T13" t="n">
-        <v>1432.125227786372</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.940779286676</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V13" t="n">
-        <v>870.229311894705</v>
+        <v>993.3257460627428</v>
       </c>
       <c r="W13" t="n">
-        <v>595.376908067218</v>
+        <v>718.4733422352558</v>
       </c>
       <c r="X13" t="n">
-        <v>352.8130115130231</v>
+        <v>475.9094456810609</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.4702432027651</v>
+        <v>249.5666773708029</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1440.262352996227</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="C14" t="n">
-        <v>1185.881492649534</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D14" t="n">
-        <v>1185.881492649534</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E14" t="n">
-        <v>759.9045527973917</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F14" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K14" t="n">
-        <v>493.6978991635576</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M14" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N14" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O14" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P14" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5321,7 +5323,7 @@
         <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1440.262352996227</v>
+        <v>1773.103336181797</v>
       </c>
     </row>
     <row r="15">
@@ -5337,40 +5339,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L15" t="n">
-        <v>932.0278096358747</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M15" t="n">
-        <v>1388.813716338606</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N15" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P15" t="n">
         <v>1845.599623041337</v>
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>203.1689621665946</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F16" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L16" t="n">
-        <v>618.1289149610848</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M16" t="n">
-        <v>1009.314709931336</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N16" t="n">
-        <v>1386.806220807371</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1752.163294524301</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1508.823946750201</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U16" t="n">
-        <v>1228.639498250506</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V16" t="n">
-        <v>946.9280308585344</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W16" t="n">
-        <v>672.0756270310475</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X16" t="n">
-        <v>429.5117304768526</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.1689621665946</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1311.305734938569</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C17" t="n">
-        <v>1311.305734938569</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D17" t="n">
-        <v>888.013114123569</v>
+        <v>575.557907948107</v>
       </c>
       <c r="E17" t="n">
-        <v>462.0361742714265</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>149.5809680959645</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>475.2419029331441</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>932.027809635875</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M17" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N17" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P17" t="n">
         <v>1845.599623041337</v>
@@ -5555,10 +5557,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>1716.643004983679</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y17" t="n">
-        <v>1311.305734938569</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="18">
@@ -5574,28 +5576,28 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L18" t="n">
         <v>493.6978991635576</v>
@@ -5607,7 +5609,7 @@
         <v>493.6978991635576</v>
       </c>
       <c r="O18" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P18" t="n">
         <v>1407.269712569019</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.4393219715645</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>706.9125390214753</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>540.7043331743288</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>368.8425589488892</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>202.5855892431213</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>58.78932075127571</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L19" t="n">
-        <v>320.9309218908219</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U19" t="n">
-        <v>1322.075826767541</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V19" t="n">
-        <v>1040.36435937557</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W19" t="n">
-        <v>765.5119555480831</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="X19" t="n">
-        <v>522.9480589938881</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.6052906836302</v>
+        <v>870.2293118947046</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1319.815757661547</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C20" t="n">
-        <v>892.9150276748471</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D20" t="n">
-        <v>469.6224068598473</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>595.1637600336857</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L20" t="n">
-        <v>1145.829295018124</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M20" t="n">
-        <v>1674.245717477938</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N20" t="n">
-        <v>2224.911252462377</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462377</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462377</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2145.001391998187</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2145.001391998187</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>2145.001391998187</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>2145.001391998187</v>
+        <v>1732.930647406199</v>
       </c>
       <c r="X20" t="n">
-        <v>2145.001391998187</v>
+        <v>1732.930647406199</v>
       </c>
       <c r="Y20" t="n">
-        <v>1739.664121953077</v>
+        <v>1732.930647406199</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L21" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M21" t="n">
-        <v>316.1957143288386</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N21" t="n">
-        <v>838.3748437825398</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O21" t="n">
-        <v>838.3748437825398</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P21" t="n">
-        <v>1389.040378766978</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>1531.252408707715</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>1531.252408707715</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="W22" t="n">
-        <v>1531.252408707715</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X22" t="n">
-        <v>1531.252408707715</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>988.0056192934842</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C23" t="n">
-        <v>561.1048893067843</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D23" t="n">
-        <v>137.8122684917846</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924753</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L23" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M23" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N23" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X23" t="n">
-        <v>1813.191253630124</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y23" t="n">
-        <v>1407.853983585014</v>
+        <v>2165.64106180522</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="L24" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M24" t="n">
-        <v>44.49822504924753</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7093087981016</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O24" t="n">
-        <v>838.3748437825398</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
         <v>1853.185855629757</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.5772905989122</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="C25" t="n">
-        <v>96.60472747782816</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="D25" t="n">
-        <v>44.49822504924814</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="E25" t="n">
-        <v>44.49822504924814</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="F25" t="n">
-        <v>44.49822504924814</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G25" t="n">
-        <v>44.49822504924814</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H25" t="n">
-        <v>44.49822504924814</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924814</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394889</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002918</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754307</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212358</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109778</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>448.8372874597989</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C26" t="n">
-        <v>448.8372874597989</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D26" t="n">
-        <v>448.8372874597989</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E26" t="n">
-        <v>448.8372874597989</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F26" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H26" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M26" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N26" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O26" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W26" t="n">
-        <v>1212.675578485385</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X26" t="n">
-        <v>1212.675578485385</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y26" t="n">
-        <v>807.3383084402755</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1957143288386</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955973</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.520320645319</v>
+        <v>1153.275937980035</v>
       </c>
       <c r="N27" t="n">
-        <v>1853.185855629757</v>
+        <v>1703.941472964473</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>454.3200315065851</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="C28" t="n">
-        <v>454.3200315065851</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="D28" t="n">
-        <v>454.3200315065851</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E28" t="n">
-        <v>454.3200315065851</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F28" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G28" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6406,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T28" t="n">
-        <v>1811.43685720741</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U28" t="n">
-        <v>1531.252408707715</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V28" t="n">
-        <v>1249.540941315744</v>
+        <v>1400.203712413195</v>
       </c>
       <c r="W28" t="n">
-        <v>974.6885374882565</v>
+        <v>1125.351308585708</v>
       </c>
       <c r="X28" t="n">
-        <v>732.1246409340616</v>
+        <v>882.7874120315128</v>
       </c>
       <c r="Y28" t="n">
-        <v>505.7818726238037</v>
+        <v>882.7874120315128</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>734.0176239744937</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="C29" t="n">
-        <v>734.0176239744937</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D29" t="n">
-        <v>734.0176239744937</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E29" t="n">
-        <v>734.0176239744937</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F29" t="n">
-        <v>734.0176239744937</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G29" t="n">
-        <v>329.6785615639424</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K29" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L29" t="n">
+        <v>455.358312627159</v>
+      </c>
+      <c r="M29" t="n">
         <v>1006.023847611597</v>
       </c>
-      <c r="M29" t="n">
-        <v>1556.689382596036</v>
-      </c>
       <c r="N29" t="n">
-        <v>1556.689382596036</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O29" t="n">
-        <v>2107.354917580474</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U29" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V29" t="n">
-        <v>1542.1289725064</v>
+        <v>2119.622379637194</v>
       </c>
       <c r="W29" t="n">
-        <v>1145.737622806746</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="X29" t="n">
-        <v>734.0176239744937</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="Y29" t="n">
-        <v>734.0176239744937</v>
+        <v>1723.231029937541</v>
       </c>
     </row>
     <row r="30">
@@ -6522,40 +6524,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N30" t="n">
-        <v>1302.520320645319</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O30" t="n">
-        <v>1302.520320645319</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P30" t="n">
         <v>1853.185855629757</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>884.1145108219148</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C31" t="n">
-        <v>712.1419477008308</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D31" t="n">
-        <v>548.8251748276015</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E31" t="n">
-        <v>382.616968980455</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F31" t="n">
-        <v>210.7551947550154</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6640,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S31" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T31" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707716</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W31" t="n">
-        <v>1249.540941315744</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X31" t="n">
-        <v>1249.540941315744</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y31" t="n">
-        <v>1074.28047953398</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1723.231029937541</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C32" t="n">
-        <v>1723.231029937541</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.938409122541</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E32" t="n">
-        <v>873.9614692703988</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F32" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L32" t="n">
+        <v>957.767218850581</v>
+      </c>
+      <c r="M32" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="M32" t="n">
-        <v>2059.098288819458</v>
-      </c>
       <c r="N32" t="n">
-        <v>2059.098288819458</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2134.951028769794</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2134.951028769794</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>2134.951028769794</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>2134.951028769794</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>2134.951028769794</v>
+        <v>2152.236878826872</v>
       </c>
       <c r="X32" t="n">
-        <v>1723.231029937541</v>
+        <v>1740.51687999462</v>
       </c>
       <c r="Y32" t="n">
-        <v>1723.231029937541</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M33" t="n">
-        <v>1145.829295018124</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.494830002562</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="O33" t="n">
-        <v>1696.494830002562</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>268.5772905989122</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60472747782816</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>458.7432593109778</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.668515703089</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C35" t="n">
-        <v>893.7677857163897</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D35" t="n">
-        <v>470.47516490139</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>124.5535351064522</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L35" t="n">
-        <v>407.101683866143</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M35" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N35" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O35" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2152.236878826872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T35" t="n">
-        <v>2152.236878826872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U35" t="n">
-        <v>2152.236878826872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V35" t="n">
-        <v>2152.236878826872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W35" t="n">
-        <v>2152.236878826872</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X35" t="n">
-        <v>1740.51687999462</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y35" t="n">
-        <v>1740.51687999462</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C36" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E36" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F36" t="n">
-        <v>563.6534869019529</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H36" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K36" t="n">
-        <v>1238.586646145896</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L36" t="n">
-        <v>1789.252181130334</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M36" t="n">
-        <v>2224.911252462377</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N36" t="n">
-        <v>2224.911252462377</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O36" t="n">
-        <v>2224.911252462377</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P36" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q36" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R36" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S36" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T36" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U36" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V36" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W36" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X36" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y36" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>645.8130990090527</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C37" t="n">
-        <v>473.8405358879687</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D37" t="n">
-        <v>310.5237630147394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E37" t="n">
-        <v>310.5237630147394</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F37" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G37" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H37" t="n">
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J37" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894585</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U37" t="n">
-        <v>1484.213795394889</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="V37" t="n">
-        <v>1202.502328002918</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="W37" t="n">
-        <v>927.6499241754307</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="X37" t="n">
-        <v>685.0860276212358</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.8130990090527</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>448.8372874597989</v>
+        <v>1212.675578485384</v>
       </c>
       <c r="C38" t="n">
-        <v>448.8372874597989</v>
+        <v>1212.675578485384</v>
       </c>
       <c r="D38" t="n">
-        <v>448.8372874597989</v>
+        <v>1212.675578485384</v>
       </c>
       <c r="E38" t="n">
-        <v>448.8372874597989</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F38" t="n">
-        <v>448.8372874597989</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
@@ -7178,46 +7180,46 @@
         <v>407.101683866143</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M38" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N38" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O38" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.269438076291</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V38" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185037</v>
       </c>
       <c r="W38" t="n">
-        <v>1471.030487888973</v>
+        <v>1212.675578485384</v>
       </c>
       <c r="X38" t="n">
-        <v>1059.31048905672</v>
+        <v>1212.675578485384</v>
       </c>
       <c r="Y38" t="n">
-        <v>653.9732190116105</v>
+        <v>1212.675578485384</v>
       </c>
     </row>
     <row r="39">
@@ -7233,43 +7235,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="L39" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M39" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N39" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O39" t="n">
-        <v>1696.494830002562</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P39" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7327,7 +7329,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7342,37 +7344,37 @@
         <v>1074.392270743914</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V40" t="n">
-        <v>2054.776204981511</v>
+        <v>1943.199785070404</v>
       </c>
       <c r="W40" t="n">
-        <v>1779.923801154024</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X40" t="n">
-        <v>1537.35990459983</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y40" t="n">
         <v>1317.84531628555</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.2634748317415</v>
+        <v>591.61426959383</v>
       </c>
       <c r="C41" t="n">
-        <v>377.2634748317415</v>
+        <v>591.61426959383</v>
       </c>
       <c r="D41" t="n">
-        <v>377.2634748317415</v>
+        <v>591.61426959383</v>
       </c>
       <c r="E41" t="n">
-        <v>377.2634748317415</v>
+        <v>591.61426959383</v>
       </c>
       <c r="F41" t="n">
-        <v>377.2634748317415</v>
+        <v>166.4900877832303</v>
       </c>
       <c r="G41" t="n">
-        <v>377.2634748317415</v>
+        <v>166.4900877832303</v>
       </c>
       <c r="H41" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L41" t="n">
-        <v>455.3583126271592</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M41" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N41" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O41" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P41" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V41" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W41" t="n">
-        <v>1212.675578485385</v>
+        <v>1828.519902762722</v>
       </c>
       <c r="X41" t="n">
-        <v>800.9555796531324</v>
+        <v>1416.79990393047</v>
       </c>
       <c r="Y41" t="n">
-        <v>395.6183096080227</v>
+        <v>1011.46263388536</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7472,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L42" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M42" t="n">
-        <v>51.94486801115937</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7093087981016</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O42" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P42" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
         <v>1853.185855629757</v>
@@ -7564,16 +7566,16 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792424</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736632</v>
       </c>
       <c r="M43" t="n">
         <v>1074.392270743914</v>
@@ -7591,19 +7593,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2030.091328924103</v>
       </c>
       <c r="T43" t="n">
-        <v>2224.911252462376</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="U43" t="n">
-        <v>2224.911252462376</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="V43" t="n">
-        <v>2061.60438497749</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="W43" t="n">
         <v>1786.751981150003</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1292.35217653412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.35217653412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D44" t="n">
-        <v>1292.35217653412</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E44" t="n">
-        <v>866.3752366819779</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F44" t="n">
-        <v>441.2510548713781</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>36.91199246082674</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L44" t="n">
-        <v>36.91199246082674</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>493.6978991635576</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N44" t="n">
-        <v>493.6978991635576</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O44" t="n">
-        <v>932.7282368344229</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P44" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.599623041337</v>
+        <v>1152.042936030874</v>
       </c>
       <c r="Y44" t="n">
-        <v>1440.262352996227</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J45" t="n">
-        <v>44.35863542273854</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K45" t="n">
-        <v>501.1445421254694</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L45" t="n">
-        <v>501.1445421254694</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1445421254694</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="N45" t="n">
-        <v>957.9304488282003</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O45" t="n">
-        <v>957.9304488282003</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P45" t="n">
-        <v>1388.813716338606</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q45" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>907.6190029442296</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>907.6190029442296</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>744.3022300710003</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>578.0940242238538</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>406.2322499984142</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>239.9752802926463</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>96.17901180080074</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K46" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L46" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1444.297549031529</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1734.89676095343</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1372.637375483782</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>1097.784971656295</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>1097.784971656295</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>359.7783135124001</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.711948192957</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>498.8311686597659</v>
       </c>
       <c r="N2" t="n">
-        <v>361.2933355520367</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8061,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>483.9149924745636</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>106.8108172115448</v>
+        <v>106.810817211545</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8149,10 +8151,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257618</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8216,13 +8218,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8295,16 +8297,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345442</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>99.28895563385595</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
@@ -8313,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8383,10 +8385,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>154.8562184343671</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8456,25 +8458,25 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M8" t="n">
-        <v>113.9226282079388</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>456.4271212953046</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>99.2889556338564</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,13 +8619,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>480.1887482250051</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>191.487466684572</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>481.0695277581962</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.1383873221887</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9097,13 +9099,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>192.3923090257622</v>
+        <v>292.9251079803835</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>112.2559661033163</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>114.0667271187383</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9243,10 +9245,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9258,10 +9260,10 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q18" t="n">
-        <v>465.5045236145514</v>
+        <v>465.5045236145516</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9319,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>400.5044494188121</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>571.1852249800523</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>362.1121742943702</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N21" t="n">
-        <v>548.7966943283913</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9568,7 +9570,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>402.0534574160406</v>
+        <v>212.9282671456378</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>84.50867025038121</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>205.799884496177</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
@@ -9659,7 +9661,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,25 +9719,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931269</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N24" t="n">
-        <v>267.0107895760205</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660328</v>
       </c>
       <c r="O26" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L27" t="n">
-        <v>462.5747547263935</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>91.07600343998071</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>84.50867025038121</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>594.539855548217</v>
+        <v>453.3222319052608</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N29" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10188,25 +10190,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>462.5747547263934</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204228</v>
+        <v>180.0446044646224</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,19 +10351,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001766</v>
       </c>
       <c r="O32" t="n">
-        <v>204.8788014195786</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10370,7 +10372,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P33" t="n">
-        <v>180.0446044646217</v>
+        <v>466.3767193553318</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10586,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L35" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150259</v>
+        <v>204.9191049629861</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M36" t="n">
-        <v>463.1564485244921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847016</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>249.7804132464869</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,19 +10828,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>181.7107419310186</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10902,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931272</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N39" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q39" t="n">
-        <v>181.0208015487716</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10990,7 +10992,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160413</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L41" t="n">
-        <v>453.322231905261</v>
+        <v>182.5915214642096</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258255</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11142,22 +11144,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721218</v>
       </c>
       <c r="N42" t="n">
-        <v>259.4889279983318</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204228</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11218,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464867</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>480.8559469023526</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705655</v>
+        <v>181.8548408418183</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N45" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>457.0064649527131</v>
+        <v>378.9827212526463</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>136.4406355808522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>6.566658533324841</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>291.5548568515165</v>
       </c>
     </row>
     <row r="3">
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18.07003502930985</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -22765,13 +22767,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>150.0000851585041</v>
       </c>
     </row>
     <row r="5">
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>309.3306541137073</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>160.1671275004047</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22945,10 +22947,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>4.883581071528511</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>68.89248164364025</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,25 +22992,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23021,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>275.6272398561812</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23033,10 +23035,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23084,7 +23086,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>129.1211890896499</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>147.9890084539417</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>293.9764452515383</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>151.4572399900371</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23321,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.60164079042603</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>147.9890084539417</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>170.794670943607</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>329.5125733537146</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23665,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23701,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>75.93173177419139</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>183.3474088619191</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>279.9357469668485</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>101.4207812742427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>77.11232756958229</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23975,10 +23977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -24020,7 +24022,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>139.6055533862651</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -24029,13 +24031,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>280.8851503238702</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24175,25 +24177,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>213.1248169830943</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.8063191292124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24212,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>329.3362674455093</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -24269,10 +24271,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>342.6064085940736</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.8853134985965</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24376,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.73386987794299</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>377.1543111380371</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>137.3170863188986</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -24607,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>195.724370566175</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24685,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>12.56116159115766</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>249.6785366280834</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283285</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.57148346320903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.26299972993384</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -24977,7 +24979,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>320.4798063035083</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402022</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25166,10 +25168,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>215.6349377840729</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.37599128644179</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25217,7 +25219,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="Y37" t="n">
-        <v>185.1991413010942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.5653084123213</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25397,19 +25399,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>415.8277996154543</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,7 +25447,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -25606,16 +25608,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.2205539080145</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.759898196018639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>397.4785942200963</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -25637,16 +25639,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>174.1177506340626</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25831,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>22.1301998828651</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>269.218805951129</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25871,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -25922,13 +25924,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>195.1287436900036</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.60690369308911</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443530.6406364734</v>
+        <v>443530.6406364733</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443530.6406364735</v>
+        <v>443530.6406364733</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443530.6406364733</v>
+        <v>443530.6406364734</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443530.6406364734</v>
+        <v>443530.6406364733</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499765.964947566</v>
+        <v>443530.6406364733</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499765.9649475662</v>
+        <v>499765.964947566</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>499765.9649475661</v>
+        <v>499765.964947566</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499765.9649475662</v>
+        <v>499765.964947566</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499765.9649475662</v>
+        <v>499765.964947566</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443530.6406364734</v>
+        <v>499765.964947566</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.1533390035</v>
       </c>
       <c r="C2" t="n">
-        <v>82692.15333900345</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="D2" t="n">
-        <v>82692.15333900347</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="E2" t="n">
-        <v>82692.1533390035</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="F2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="G2" t="n">
         <v>82692.15333900347</v>
       </c>
       <c r="H2" t="n">
-        <v>93176.70532920717</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="I2" t="n">
-        <v>93176.70532920718</v>
+        <v>93176.70532920715</v>
       </c>
       <c r="J2" t="n">
-        <v>93176.70532920719</v>
+        <v>93176.70532920715</v>
       </c>
       <c r="K2" t="n">
         <v>93176.70532920718</v>
       </c>
       <c r="L2" t="n">
+        <v>93176.70532920722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>93176.70532920717</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93176.70532920715</v>
+      </c>
+      <c r="O2" t="n">
         <v>93176.70532920718</v>
       </c>
-      <c r="M2" t="n">
-        <v>93176.70532920724</v>
-      </c>
-      <c r="N2" t="n">
-        <v>93176.70532920722</v>
-      </c>
-      <c r="O2" t="n">
-        <v>93176.70532920724</v>
-      </c>
       <c r="P2" t="n">
-        <v>82692.15333900349</v>
+        <v>93176.70532920717</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>154625.7206181204</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181806</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>120722.5169427568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.1036273708399</v>
       </c>
       <c r="C4" t="n">
         <v>400.1036273708401</v>
@@ -26424,40 +26426,40 @@
         <v>400.1036273708401</v>
       </c>
       <c r="E4" t="n">
+        <v>400.10362737084</v>
+      </c>
+      <c r="F4" t="n">
+        <v>400.10362737084</v>
+      </c>
+      <c r="G4" t="n">
+        <v>400.10362737084</v>
+      </c>
+      <c r="H4" t="n">
         <v>400.1036273708401</v>
       </c>
-      <c r="F4" t="n">
-        <v>400.1036273708401</v>
-      </c>
-      <c r="G4" t="n">
-        <v>400.1036273708401</v>
-      </c>
-      <c r="H4" t="n">
-        <v>458.4532502675966</v>
-      </c>
       <c r="I4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="J4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="K4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="L4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="M4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="N4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="O4" t="n">
+        <v>458.4532502675964</v>
+      </c>
+      <c r="P4" t="n">
         <v>458.4532502675965</v>
-      </c>
-      <c r="J4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="K4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="L4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="M4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="O4" t="n">
-        <v>458.4532502675966</v>
-      </c>
-      <c r="P4" t="n">
-        <v>400.1036273708401</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="C5" t="n">
         <v>61680.71427022832</v>
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-134014.3851767161</v>
       </c>
       <c r="C6" t="n">
-        <v>20611.33544140428</v>
+        <v>20611.33544140431</v>
       </c>
       <c r="D6" t="n">
         <v>20611.33544140431</v>
       </c>
       <c r="E6" t="n">
-        <v>54238.93544140434</v>
+        <v>54238.9354414043</v>
       </c>
       <c r="F6" t="n">
-        <v>54238.93544140433</v>
+        <v>54238.9354414043</v>
       </c>
       <c r="G6" t="n">
-        <v>54238.93544140431</v>
+        <v>54238.93544140432</v>
       </c>
       <c r="H6" t="n">
-        <v>33314.17818589612</v>
+        <v>54238.9354414043</v>
       </c>
       <c r="I6" t="n">
+        <v>33682.86908969338</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-61822.91590124537</v>
+      </c>
+      <c r="K6" t="n">
+        <v>58899.60104151148</v>
+      </c>
+      <c r="L6" t="n">
+        <v>58899.60104151152</v>
+      </c>
+      <c r="M6" t="n">
+        <v>58899.60104151147</v>
+      </c>
+      <c r="N6" t="n">
+        <v>58899.60104151145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>58899.60104151148</v>
+      </c>
+      <c r="P6" t="n">
         <v>58899.60104151146</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-61822.91590124543</v>
-      </c>
-      <c r="K6" t="n">
-        <v>58899.60104151146</v>
-      </c>
-      <c r="L6" t="n">
-        <v>58899.60104151146</v>
-      </c>
-      <c r="M6" t="n">
-        <v>58899.60104151152</v>
-      </c>
-      <c r="N6" t="n">
-        <v>58899.6010415115</v>
-      </c>
-      <c r="O6" t="n">
-        <v>58899.60104151152</v>
-      </c>
-      <c r="P6" t="n">
-        <v>54238.93544140433</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.82790735525987</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603343</v>
+        <v>461.3999057603339</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.0137127175908</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>85.46778899800312</v>
+        <v>85.46778899800334</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34869,10 +34871,10 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273373</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35103,10 +35105,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>134.1073174587667</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,13 +35339,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>168.3155769623498</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35817,13 +35819,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>169.8931215273378</v>
+        <v>270.4259204819591</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>76.49136530850691</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q18" t="n">
-        <v>442.7574853255729</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>377.9290095273263</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>533.7539620806206</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N21" t="n">
-        <v>527.4536661148496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36288,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>192.1793661700374</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36360,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>48.74406945557187</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N24" t="n">
-        <v>245.6677613624788</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="O26" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L27" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>67.90411371775849</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P30" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="O32" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P33" t="n">
-        <v>158.2737632597931</v>
+        <v>444.6058781505031</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37306,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M36" t="n">
-        <v>440.0596680121641</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
         <v>228.8157587937749</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>144.2794790315872</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404409</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L41" t="n">
-        <v>415.010189472638</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="N42" t="n">
-        <v>238.1458997847901</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O42" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937746</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603342</v>
+        <v>144.279479031587</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>435.2356237478845</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,13 +38189,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>111.8210728160673</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155225.6872014186</v>
+        <v>149565.8926249774</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357867</v>
+        <v>9802884.450357862</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5427826.69811297</v>
+        <v>5427826.698112972</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>97.42765644378547</v>
       </c>
       <c r="Y2" t="n">
-        <v>109.7290404931421</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>2.856775316174107</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -873,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.07925546865125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,16 +907,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>111.5422858787864</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25.33165624970354</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>29.87840093348654</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>152.4075103928622</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>143.4324547506685</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>14.52604366828205</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0.2758254447488502</v>
       </c>
       <c r="C10" t="n">
-        <v>22.26382903593143</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>143.4324547506685</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>235.0596582882419</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>22.26382903593143</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.9053442641102</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.771323990944</v>
+        <v>295.3851527009668</v>
       </c>
     </row>
     <row r="15">
@@ -1767,19 +1767,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>68.83205621562998</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>54.65245350721041</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>111.5422858787864</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.96601960994512</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>21.65855500754449</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>192.5908762569146</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>224.3868276469254</v>
       </c>
       <c r="W20" t="n">
-        <v>111.5422858787863</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>51.99470172427706</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2259,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>65.7695357349571</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>315.5406583159739</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.67748875058492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.378995526348486</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>63.24594792391646</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.1295862066214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2733,7 +2733,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>83.16998215187643</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>25.52697171334336</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>104.2359840969296</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>102.7319323145797</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>51.39577240430518</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>131.9631498857363</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>71.94762989914831</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3201,7 +3201,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>171.0584564108712</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>79.2547569566326</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>82.38632349887008</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>218.0080577057878</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>163.960742322598</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>5.889370838166728</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>4.130588143828354</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.87597792716532</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>120.7719441066429</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.52824899709332</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.3034971231914</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>360.493734708809</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>212.4740551539266</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>14.58981000669372</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>51.16397888403768</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4197,13 +4197,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1314.913844110269</v>
+        <v>922.0022145190551</v>
       </c>
       <c r="C2" t="n">
-        <v>888.013114123569</v>
+        <v>495.1014845323552</v>
       </c>
       <c r="D2" t="n">
-        <v>888.013114123569</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="E2" t="n">
-        <v>462.0361742714265</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="K2" t="n">
-        <v>357.6855680512417</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="L2" t="n">
-        <v>814.4714747539724</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M2" t="n">
         <v>1271.257381456703</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O2" t="n">
         <v>1728.043288159434</v>
@@ -4354,28 +4354,28 @@
         <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1845.599623041336</v>
+        <v>1747.187848855695</v>
       </c>
       <c r="Y2" t="n">
-        <v>1734.762208401799</v>
+        <v>1341.850578810585</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922819</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097866</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
         <v>90.28808569851708</v>
@@ -4409,37 +4409,37 @@
         <v>36.9119924608267</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431485</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M3" t="n">
-        <v>1222.181295145879</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253902</v>
+        <v>950.4838058662884</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590522</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123446</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,52 +4464,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>302.8887665676972</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>302.8887665676972</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>302.8887665676972</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H4" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>618.1289149610848</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M4" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N4" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119435</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041336</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041336</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
         <v>1798.56100972851</v>
@@ -4521,19 +4521,19 @@
         <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.086614473545</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.086614473545</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>305.7743982001963</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1425.751258749807</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="C5" t="n">
-        <v>998.8505287631067</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="D5" t="n">
-        <v>575.557907948107</v>
+        <v>1317.939708099477</v>
       </c>
       <c r="E5" t="n">
-        <v>149.5809680959645</v>
+        <v>891.962768247335</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082673</v>
+        <v>466.8385864367352</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082673</v>
+        <v>62.49952402618385</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082673</v>
+        <v>62.49952402618385</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L5" t="n">
-        <v>1271.957808655251</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.957808655251</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4594,25 +4594,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082672</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511719</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511719</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511719</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956633</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405.2109393551519</v>
+        <v>776.25877763854</v>
       </c>
       <c r="C7" t="n">
-        <v>405.2109393551519</v>
+        <v>776.25877763854</v>
       </c>
       <c r="D7" t="n">
-        <v>405.2109393551519</v>
+        <v>612.9420047653107</v>
       </c>
       <c r="E7" t="n">
-        <v>405.2109393551519</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="F7" t="n">
-        <v>233.3491651297123</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>67.09219542394445</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
-        <v>67.09219542394445</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786371</v>
+        <v>1474.478982052835</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1474.478982052835</v>
       </c>
       <c r="V7" t="n">
-        <v>870.2293118947046</v>
+        <v>1192.767514660864</v>
       </c>
       <c r="W7" t="n">
-        <v>595.3769080672175</v>
+        <v>1192.767514660864</v>
       </c>
       <c r="X7" t="n">
-        <v>595.3769080672175</v>
+        <v>1192.767514660864</v>
       </c>
       <c r="Y7" t="n">
-        <v>595.3769080672175</v>
+        <v>966.4247463506056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>608.6939898724443</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="C8" t="n">
-        <v>181.7932598857444</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082673</v>
+        <v>477.5617036950723</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082673</v>
+        <v>51.58476384292982</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
@@ -4813,43 +4813,43 @@
         <v>1313.087264683184</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1028.542354163974</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="N9" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.40070865873727</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>36.91199246082673</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>36.91199246082673</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>36.91199246082673</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082673</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082673</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4989,25 +4989,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T10" t="n">
-        <v>1555.22166195441</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U10" t="n">
-        <v>1275.037213454714</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V10" t="n">
-        <v>993.3257460627428</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W10" t="n">
-        <v>718.4733422352558</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="X10" t="n">
-        <v>475.9094456810609</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.5666773708029</v>
+        <v>1120.371726545416</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>608.6939898724443</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="C11" t="n">
-        <v>181.7932598857444</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="D11" t="n">
-        <v>181.7932598857444</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E11" t="n">
-        <v>181.7932598857444</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F11" t="n">
-        <v>181.7932598857444</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G11" t="n">
-        <v>181.7932598857444</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>493.6978991635576</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M11" t="n">
-        <v>932.0278096358751</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N11" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O11" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
         <v>1845.599623041337</v>
@@ -5074,19 +5074,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>1349.810715366798</v>
       </c>
       <c r="Y11" t="n">
-        <v>1028.542354163974</v>
+        <v>1349.810715366798</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="L12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="M12" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="N12" t="n">
-        <v>950.4838058662883</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O12" t="n">
         <v>1388.813716338606</v>
@@ -5150,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5159,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.40070865873727</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082673</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082673</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082673</v>
+        <v>169.1396129296249</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N13" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5235,16 +5235,16 @@
         <v>1275.037213454714</v>
       </c>
       <c r="V13" t="n">
-        <v>993.3257460627428</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W13" t="n">
-        <v>718.4733422352558</v>
+        <v>1000.184809627227</v>
       </c>
       <c r="X13" t="n">
-        <v>475.9094456810609</v>
+        <v>757.6209130730325</v>
       </c>
       <c r="Y13" t="n">
-        <v>249.5666773708029</v>
+        <v>531.2781447627746</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1773.103336181797</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="C14" t="n">
-        <v>1346.202606195097</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="D14" t="n">
-        <v>922.9099853800977</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="E14" t="n">
-        <v>496.9330455279553</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="F14" t="n">
-        <v>71.80886371735552</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G14" t="n">
-        <v>71.80886371735552</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>475.2419029331443</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M14" t="n">
-        <v>475.2419029331443</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N14" t="n">
-        <v>932.0278096358751</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O14" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
         <v>1845.599623041337</v>
@@ -5317,13 +5317,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341684</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1773.103336181797</v>
+        <v>739.1194333973433</v>
       </c>
     </row>
     <row r="15">
@@ -5339,40 +5339,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K15" t="n">
-        <v>493.6978991635576</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662883</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.269712569019</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="P15" t="n">
         <v>1845.599623041337</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715641</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082673</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082673</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082673</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082673</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082673</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6013137552475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M16" t="n">
-        <v>782.7871087254983</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N16" t="n">
-        <v>1160.278619601534</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O16" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P16" t="n">
         <v>1718.599492800575</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267236</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480826</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938877</v>
+        <v>1293.037015255818</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836297</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.751258749807</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C17" t="n">
-        <v>998.8505287631067</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D17" t="n">
-        <v>575.557907948107</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E17" t="n">
-        <v>149.5809680959645</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>149.5809680959645</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
-        <v>149.5809680959645</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
         <v>399.5154512777223</v>
@@ -5521,16 +5521,16 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>856.3013579804531</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M17" t="n">
-        <v>856.3013579804531</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N17" t="n">
-        <v>1313.087264683184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O17" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P17" t="n">
         <v>1845.599623041337</v>
@@ -5542,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1773.916774950483</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1773.916774950483</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1515.561865546895</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1158.072450673145</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N18" t="n">
-        <v>493.6978991635576</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O18" t="n">
-        <v>950.4838058662883</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P18" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
         <v>1845.599623041337</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.2293118947046</v>
+        <v>547.0032995131182</v>
       </c>
       <c r="C19" t="n">
-        <v>870.2293118947046</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="D19" t="n">
-        <v>706.9125390214753</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="E19" t="n">
-        <v>540.7043331743288</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F19" t="n">
-        <v>368.8425589488892</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G19" t="n">
-        <v>202.5855892431213</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>58.78932075127571</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K19" t="n">
         <v>263.4395936666639</v>
@@ -5682,16 +5682,16 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5703,22 +5703,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1432.125227786371</v>
+        <v>1480.928336917124</v>
       </c>
       <c r="U19" t="n">
-        <v>1151.940779286676</v>
+        <v>1480.928336917124</v>
       </c>
       <c r="V19" t="n">
-        <v>870.2293118947046</v>
+        <v>1480.928336917124</v>
       </c>
       <c r="W19" t="n">
-        <v>870.2293118947046</v>
+        <v>1206.075933089637</v>
       </c>
       <c r="X19" t="n">
-        <v>870.2293118947046</v>
+        <v>963.5120365354419</v>
       </c>
       <c r="Y19" t="n">
-        <v>870.2293118947046</v>
+        <v>737.1692682251839</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1313.082283114669</v>
+        <v>1222.554912082163</v>
       </c>
       <c r="C20" t="n">
-        <v>886.181553127969</v>
+        <v>795.6541820954632</v>
       </c>
       <c r="D20" t="n">
-        <v>462.8889323129692</v>
+        <v>795.6541820954632</v>
       </c>
       <c r="E20" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F20" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G20" t="n">
-        <v>36.91199246082673</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L20" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>36.91199246082673</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N20" t="n">
-        <v>493.6978991635576</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O20" t="n">
-        <v>815.1719019525202</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P20" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5788,16 +5788,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1845.599623041337</v>
+        <v>1618.946261781816</v>
       </c>
       <c r="W20" t="n">
-        <v>1732.930647406199</v>
+        <v>1222.554912082163</v>
       </c>
       <c r="X20" t="n">
-        <v>1732.930647406199</v>
+        <v>1222.554912082163</v>
       </c>
       <c r="Y20" t="n">
-        <v>1732.930647406199</v>
+        <v>1222.554912082163</v>
       </c>
     </row>
     <row r="21">
@@ -5813,40 +5813,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>36.91199246082673</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2419029331443</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N21" t="n">
-        <v>932.0278096358751</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P21" t="n">
         <v>1845.599623041337</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.093114985063</v>
+        <v>518.9377937795242</v>
       </c>
       <c r="C22" t="n">
-        <v>948.1205518639796</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="D22" t="n">
-        <v>784.8037789907503</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="E22" t="n">
-        <v>618.5955731436038</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F22" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G22" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K22" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L22" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526241</v>
       </c>
       <c r="M22" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U22" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V22" t="n">
-        <v>1779.165748561582</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W22" t="n">
-        <v>1779.165748561582</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="X22" t="n">
-        <v>1536.601852007387</v>
+        <v>797.8004628213752</v>
       </c>
       <c r="Y22" t="n">
-        <v>1310.259083697129</v>
+        <v>571.4576945111172</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.792697513689</v>
+        <v>506.2958262924762</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.891967526989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D23" t="n">
-        <v>895.5993467119897</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E23" t="n">
-        <v>469.6224068598473</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462376</v>
+        <v>1322.535540283659</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462376</v>
+        <v>926.1441905840063</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462376</v>
+        <v>926.1441905840063</v>
       </c>
       <c r="Y23" t="n">
-        <v>2165.64106180522</v>
+        <v>926.1441905840063</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>201.1892506764432</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>751.8547856608812</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>454.3200315065849</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C25" t="n">
-        <v>454.3200315065849</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D25" t="n">
-        <v>454.3200315065849</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E25" t="n">
-        <v>454.3200315065849</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008171</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089715</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6156,7 +6156,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N25" t="n">
         <v>1451.88378161995</v>
@@ -6174,25 +6174,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754302</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212353</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109774</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.689568770218</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="C26" t="n">
-        <v>1353.788838783518</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D26" t="n">
-        <v>930.4962179685185</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E26" t="n">
-        <v>504.5192781163761</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F26" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G26" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M26" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N26" t="n">
-        <v>549.9383681074139</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O26" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>2224.911252462376</v>
+        <v>1577.378682093818</v>
       </c>
       <c r="W26" t="n">
-        <v>2224.911252462376</v>
+        <v>1180.987332394165</v>
       </c>
       <c r="X26" t="n">
-        <v>2224.911252462376</v>
+        <v>769.2673335619127</v>
       </c>
       <c r="Y26" t="n">
-        <v>2200.537933061748</v>
+        <v>769.2673335619127</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J27" t="n">
-        <v>51.94486801115936</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K27" t="n">
-        <v>602.6104029955973</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L27" t="n">
-        <v>602.6104029955973</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M27" t="n">
-        <v>1153.275937980035</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N27" t="n">
-        <v>1703.941472964473</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q27" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>692.6214433194471</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C28" t="n">
-        <v>692.6214433194471</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K28" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L28" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M28" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N28" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P28" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U28" t="n">
-        <v>1484.213795394888</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V28" t="n">
-        <v>1400.203712413195</v>
+        <v>1482.686776502613</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.351308585708</v>
+        <v>1207.834372675126</v>
       </c>
       <c r="X28" t="n">
-        <v>882.7874120315128</v>
+        <v>1182.049552762658</v>
       </c>
       <c r="Y28" t="n">
-        <v>882.7874120315128</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1723.231029937541</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="C29" t="n">
-        <v>1723.231029937541</v>
+        <v>803.240414683884</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.938409122541</v>
+        <v>803.240414683884</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9614692703988</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F29" t="n">
-        <v>448.8372874597989</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L29" t="n">
-        <v>455.358312627159</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M29" t="n">
-        <v>1006.023847611597</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N29" t="n">
-        <v>1006.023847611597</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O29" t="n">
-        <v>1556.689382596035</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T29" t="n">
-        <v>2224.911252462376</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>2119.622379637194</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W29" t="n">
-        <v>1723.231029937541</v>
+        <v>1641.861143502837</v>
       </c>
       <c r="X29" t="n">
-        <v>1723.231029937541</v>
+        <v>1230.141144670584</v>
       </c>
       <c r="Y29" t="n">
-        <v>1723.231029937541</v>
+        <v>1230.141144670584</v>
       </c>
     </row>
     <row r="30">
@@ -6524,40 +6524,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D30" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E30" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L30" t="n">
-        <v>44.49822504924752</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N30" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O30" t="n">
-        <v>1696.494830002561</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P30" t="n">
         <v>1853.185855629757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.5772905989112</v>
+        <v>769.7724627366572</v>
       </c>
       <c r="C31" t="n">
-        <v>96.60472747782725</v>
+        <v>597.7998996155732</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60472747782725</v>
+        <v>434.4831267423439</v>
       </c>
       <c r="E31" t="n">
-        <v>96.60472747782725</v>
+        <v>268.2749208951974</v>
       </c>
       <c r="F31" t="n">
-        <v>96.60472747782725</v>
+        <v>96.41314666975782</v>
       </c>
       <c r="G31" t="n">
-        <v>96.60472747782725</v>
+        <v>96.41314666975782</v>
       </c>
       <c r="H31" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
         <v>101.9895532734055</v>
@@ -6642,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S31" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U31" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V31" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W31" t="n">
-        <v>927.6499241754298</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X31" t="n">
-        <v>685.0860276212348</v>
+        <v>959.9384314487228</v>
       </c>
       <c r="Y31" t="n">
-        <v>458.7432593109769</v>
+        <v>959.9384314487228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1320.668515703089</v>
+        <v>475.662714570906</v>
       </c>
       <c r="C32" t="n">
-        <v>893.7677857163897</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="D32" t="n">
-        <v>470.47516490139</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="E32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="F32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G32" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>957.767218850581</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N32" t="n">
-        <v>1556.689382596035</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W32" t="n">
-        <v>2152.236878826872</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.51687999462</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.51687999462</v>
+        <v>475.662714570906</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M33" t="n">
-        <v>316.1957143288386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N33" t="n">
-        <v>316.1957143288386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O33" t="n">
-        <v>866.8612493132766</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P33" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q33" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G34" t="n">
         <v>288.0630618008172</v>
@@ -6855,55 +6855,55 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>2005.086319542609</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>2005.086319542609</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1723.374852150638</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>1448.522448323151</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>1205.958551768956</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>979.6157834586982</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1805.062888170846</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C35" t="n">
-        <v>1378.162158184146</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D35" t="n">
-        <v>954.869537369146</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E35" t="n">
-        <v>528.8925975170035</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F35" t="n">
-        <v>528.8925975170035</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G35" t="n">
-        <v>124.5535351064522</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M35" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N35" t="n">
-        <v>1674.245717477938</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O35" t="n">
         <v>1674.245717477938</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W35" t="n">
-        <v>2224.911252462376</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X35" t="n">
-        <v>2224.911252462376</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="Y35" t="n">
-        <v>2224.911252462376</v>
+        <v>804.1642048184415</v>
       </c>
     </row>
     <row r="36">
@@ -6998,43 +6998,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D36" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E36" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>595.1637600336854</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M36" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N36" t="n">
-        <v>595.1637600336854</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O36" t="n">
-        <v>838.37484378254</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q36" t="n">
         <v>1853.185855629757</v>
@@ -7092,7 +7092,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7125,19 +7125,19 @@
         <v>2007.737591668684</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.398243894584</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V37" t="n">
-        <v>1764.398243894584</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="W37" t="n">
-        <v>1764.398243894584</v>
+        <v>1726.026124276713</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1483.462227722518</v>
       </c>
       <c r="Y37" t="n">
         <v>1317.84531628555</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1212.675578485384</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="C38" t="n">
-        <v>1212.675578485384</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D38" t="n">
-        <v>1212.675578485384</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E38" t="n">
-        <v>1206.726719052893</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F38" t="n">
-        <v>781.6025372422928</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G38" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H38" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M38" t="n">
-        <v>549.9383681074139</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N38" t="n">
-        <v>549.9383681074139</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462376</v>
+        <v>2220.738941205984</v>
       </c>
       <c r="U38" t="n">
-        <v>1966.556343058788</v>
+        <v>1962.384031802397</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.066928185037</v>
+        <v>1604.894616928646</v>
       </c>
       <c r="W38" t="n">
-        <v>1212.675578485384</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="X38" t="n">
-        <v>1212.675578485384</v>
+        <v>1208.503267228993</v>
       </c>
       <c r="Y38" t="n">
-        <v>1212.675578485384</v>
+        <v>1208.503267228993</v>
       </c>
     </row>
     <row r="39">
@@ -7235,40 +7235,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D39" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E39" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1892506764434</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608814</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P39" t="n">
         <v>1853.185855629757</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7356,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U40" t="n">
-        <v>2224.911252462376</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V40" t="n">
-        <v>1943.199785070404</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W40" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X40" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>591.61426959383</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="C41" t="n">
-        <v>591.61426959383</v>
+        <v>460.4819834164588</v>
       </c>
       <c r="D41" t="n">
-        <v>591.61426959383</v>
+        <v>460.4819834164588</v>
       </c>
       <c r="E41" t="n">
-        <v>591.61426959383</v>
+        <v>460.4819834164588</v>
       </c>
       <c r="F41" t="n">
-        <v>166.4900877832303</v>
+        <v>460.4819834164588</v>
       </c>
       <c r="G41" t="n">
-        <v>166.4900877832303</v>
+        <v>56.14292100590745</v>
       </c>
       <c r="H41" t="n">
-        <v>44.49822504924752</v>
+        <v>56.14292100590745</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.603903091852</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O41" t="n">
-        <v>1100.603903091852</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462376</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W41" t="n">
-        <v>1828.519902762722</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X41" t="n">
-        <v>1416.79990393047</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y41" t="n">
-        <v>1011.46263388536</v>
+        <v>887.3827134031587</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D42" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E42" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K42" t="n">
-        <v>44.49822504924752</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L42" t="n">
-        <v>595.1637600336854</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M42" t="n">
-        <v>751.8547856608814</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N42" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O42" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792424</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736632</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M43" t="n">
         <v>1074.392270743914</v>
@@ -7593,28 +7593,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2030.091328924103</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T43" t="n">
-        <v>1786.751981150003</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U43" t="n">
-        <v>1786.751981150003</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.751981150003</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F44" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="M44" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N44" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O44" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T44" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>2120.543958335516</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V44" t="n">
-        <v>1763.054543461766</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W44" t="n">
-        <v>1366.663193762113</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X44" t="n">
-        <v>1152.042936030874</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="Y44" t="n">
-        <v>746.7056659857641</v>
+        <v>1145.737622806746</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J45" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K45" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L45" t="n">
-        <v>866.8612493132766</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M45" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N45" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
         <v>1853.185855629757</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>907.6190029442296</v>
+        <v>976.1595596926597</v>
       </c>
       <c r="C46" t="n">
-        <v>907.6190029442296</v>
+        <v>804.1869965715757</v>
       </c>
       <c r="D46" t="n">
-        <v>744.3022300710003</v>
+        <v>640.8702236983464</v>
       </c>
       <c r="E46" t="n">
-        <v>578.0940242238538</v>
+        <v>474.6620178511999</v>
       </c>
       <c r="F46" t="n">
-        <v>406.2322499984142</v>
+        <v>302.8002436257603</v>
       </c>
       <c r="G46" t="n">
-        <v>239.9752802926463</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H46" t="n">
-        <v>96.17901180080074</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T46" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U46" t="n">
-        <v>1654.348842875753</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V46" t="n">
-        <v>1372.637375483782</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W46" t="n">
-        <v>1097.784971656295</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.784971656295</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.784971656295</v>
+        <v>976.1595596926597</v>
       </c>
     </row>
   </sheetData>
@@ -7978,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>353.4336722031772</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7783135124001</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>499.711948192957</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
-        <v>498.8311686597659</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947801</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745636</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>106.810817211545</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477954</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493126</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>400.5044494188121</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>192.3923090257618</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>458.1670431142371</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>362.2965767485775</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8294,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>100.4610141345442</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>373.7308639970793</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8382,19 +8382,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,13 +8458,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>456.4271212953046</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>457.7507104621137</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N9" t="n">
-        <v>99.2889556338564</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8619,19 +8619,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M11" t="n">
-        <v>480.1887482250051</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8777,16 +8777,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726621</v>
+        <v>458.3324042602124</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O12" t="n">
-        <v>465.9293750477955</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,19 +8856,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>481.0695277581962</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O15" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>464.5283265304018</v>
+        <v>457.0064649527129</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O16" t="n">
-        <v>292.9251079803835</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9169,19 +9169,19 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O17" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>465.5045236145516</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9330,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>129.0289299912522</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>113.9226282079388</v>
       </c>
       <c r="N20" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>362.1121742943702</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>465.8542658379013</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738758</v>
+        <v>182.1367435982026</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9561,16 +9561,16 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>291.5984102914562</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N22" t="n">
-        <v>212.9282671456378</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
         <v>381.5174992961649</v>
@@ -9579,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,25 +9640,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>205.799884496177</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6729970931269</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M24" t="n">
-        <v>579.324593627922</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9877,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9886,13 +9886,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>181.5591018660328</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716181</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9953,22 +9953,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N27" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>91.07600343998071</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9977,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L29" t="n">
-        <v>453.3222319052608</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M30" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N30" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>180.0446044646224</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10351,19 +10351,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150257</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N32" t="n">
-        <v>86.02369229001766</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10372,7 +10372,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>466.3767193553318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M35" t="n">
-        <v>204.9191049629861</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.50743595004</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P35" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>268.8396510847016</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M38" t="n">
-        <v>181.7107419310186</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>180.6729970931272</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298235</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M39" t="n">
-        <v>579.3245936279219</v>
+        <v>455.6345869468033</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11062,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>182.5915214642096</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,28 +11135,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298235</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3705437721218</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11220,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464867</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11299,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>181.8548408418183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M45" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>378.9827212526463</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -22552,13 +22552,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22567,7 +22567,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>310.1751424001448</v>
       </c>
       <c r="Y2" t="n">
-        <v>291.5548568515165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.4075337087709</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.0000851585041</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>309.3306541137073</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>9.216246294259964</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22947,22 +22947,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>68.89248164364025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>88.49844390349682</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>275.6272398561812</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>406.3468963242117</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>187.9884835801961</v>
       </c>
       <c r="C10" t="n">
-        <v>147.9890084539417</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>151.4572399900371</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>118.8548624367711</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>147.9890084539417</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,7 +23427,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>39.23781221907498</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>329.5125733537146</v>
+        <v>105.8987446436918</v>
       </c>
     </row>
     <row r="15">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4207812742432</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>185.4858040814425</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23749,7 +23749,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>183.3474088619191</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>32.35760157564587</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>77.11232756958229</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>48.31507803944444</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,10 +24028,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>129.5276930780877</v>
       </c>
       <c r="W20" t="n">
-        <v>280.8851503238702</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>136.2696073006679</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>213.1248169830943</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -24226,7 +24226,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>38.37386240903908</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>342.6064085940736</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.8853134985965</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>290.6685728010966</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.1543111380371</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>195.724370566175</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>214.6112858753096</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>249.6785366280834</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>289.6955038880769</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>90.96253340262197</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18544517283285</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>290.6685728010966</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24934,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>320.4798063035083</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>69.84749788548777</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>215.6349377840729</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>325.2164753450601</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>22.1301998828651</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>60.11859830455734</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>415.8277996154543</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>214.5857271019848</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788912</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,16 +25639,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>174.1177506340626</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>23.01965354687018</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>22.1301998828651</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>55.1561459398057</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>195.1287436900036</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>150.0045900020165</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>47.60690369308911</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443530.6406364733</v>
+        <v>443530.6406364734</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443530.6406364734</v>
+        <v>443530.6406364733</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>443530.6406364733</v>
+        <v>443530.6406364735</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>499765.964947566</v>
+        <v>499765.9649475662</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499765.964947566</v>
+        <v>499765.9649475662</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499765.964947566</v>
+        <v>499765.9649475662</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>499765.964947566</v>
+        <v>499765.9649475661</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="C2" t="n">
         <v>82692.1533390035</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="E2" t="n">
+        <v>82692.15333900349</v>
+      </c>
+      <c r="F2" t="n">
+        <v>82692.15333900345</v>
+      </c>
+      <c r="G2" t="n">
         <v>82692.15333900346</v>
       </c>
-      <c r="D2" t="n">
-        <v>82692.15333900346</v>
-      </c>
-      <c r="E2" t="n">
-        <v>82692.15333900346</v>
-      </c>
-      <c r="F2" t="n">
-        <v>82692.15333900346</v>
-      </c>
-      <c r="G2" t="n">
-        <v>82692.15333900347</v>
-      </c>
       <c r="H2" t="n">
-        <v>82692.15333900346</v>
+        <v>82692.1533390035</v>
       </c>
       <c r="I2" t="n">
-        <v>93176.70532920715</v>
+        <v>93176.70532920717</v>
       </c>
       <c r="J2" t="n">
-        <v>93176.70532920715</v>
+        <v>93176.70532920719</v>
       </c>
       <c r="K2" t="n">
+        <v>93176.70532920721</v>
+      </c>
+      <c r="L2" t="n">
         <v>93176.70532920718</v>
       </c>
-      <c r="L2" t="n">
-        <v>93176.70532920722</v>
-      </c>
       <c r="M2" t="n">
-        <v>93176.70532920717</v>
+        <v>93176.70532920721</v>
       </c>
       <c r="N2" t="n">
-        <v>93176.70532920715</v>
+        <v>93176.70532920721</v>
       </c>
       <c r="O2" t="n">
+        <v>93176.70532920721</v>
+      </c>
+      <c r="P2" t="n">
         <v>93176.70532920718</v>
-      </c>
-      <c r="P2" t="n">
-        <v>93176.70532920717</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181204</v>
+        <v>154625.7206181205</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25216.73195181806</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427568</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400.1036273708399</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="C4" t="n">
         <v>400.1036273708401</v>
       </c>
       <c r="D4" t="n">
+        <v>400.10362737084</v>
+      </c>
+      <c r="E4" t="n">
         <v>400.1036273708401</v>
       </c>
-      <c r="E4" t="n">
-        <v>400.10362737084</v>
-      </c>
       <c r="F4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="G4" t="n">
-        <v>400.10362737084</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="H4" t="n">
         <v>400.1036273708401</v>
       </c>
       <c r="I4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="J4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="K4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="L4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="M4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675965</v>
       </c>
       <c r="N4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="O4" t="n">
-        <v>458.4532502675964</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="P4" t="n">
-        <v>458.4532502675965</v>
+        <v>458.4532502675966</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022831</v>
+        <v>61680.71427022832</v>
       </c>
       <c r="C5" t="n">
         <v>61680.71427022832</v>
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134014.3851767161</v>
+        <v>-134718.7449982077</v>
       </c>
       <c r="C6" t="n">
-        <v>20611.33544140431</v>
+        <v>19906.97561991283</v>
       </c>
       <c r="D6" t="n">
-        <v>20611.33544140431</v>
+        <v>19906.9756199128</v>
       </c>
       <c r="E6" t="n">
-        <v>54238.9354414043</v>
+        <v>53534.57561991282</v>
       </c>
       <c r="F6" t="n">
-        <v>54238.9354414043</v>
+        <v>53534.57561991277</v>
       </c>
       <c r="G6" t="n">
-        <v>54238.93544140432</v>
+        <v>53534.57561991279</v>
       </c>
       <c r="H6" t="n">
-        <v>54238.9354414043</v>
+        <v>53534.57561991283</v>
       </c>
       <c r="I6" t="n">
-        <v>33682.86908969338</v>
+        <v>33073.82337720371</v>
       </c>
       <c r="J6" t="n">
-        <v>-61822.91590124537</v>
+        <v>-62431.96161373508</v>
       </c>
       <c r="K6" t="n">
-        <v>58899.60104151148</v>
+        <v>58290.55532902182</v>
       </c>
       <c r="L6" t="n">
-        <v>58899.60104151152</v>
+        <v>58290.55532902179</v>
       </c>
       <c r="M6" t="n">
-        <v>58899.60104151147</v>
+        <v>58290.55532902182</v>
       </c>
       <c r="N6" t="n">
-        <v>58899.60104151145</v>
+        <v>58290.55532902182</v>
       </c>
       <c r="O6" t="n">
-        <v>58899.60104151148</v>
+        <v>58290.55532902182</v>
       </c>
       <c r="P6" t="n">
-        <v>58899.60104151146</v>
+        <v>58290.55532902179</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.82790735525987</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603339</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="K2" t="n">
-        <v>324.0137127175908</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>85.46778899800334</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>442.7574853255732</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>377.9290095273263</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>169.8931215273373</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>419.8550006816141</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35014,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>77.94592742031462</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35102,19 +35102,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N8" t="n">
-        <v>419.1474984608586</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603341</v>
+        <v>435.2356237478841</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031473</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35339,19 +35339,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M11" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N11" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603341</v>
+        <v>435.2356237478844</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O12" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>228.8157587937749</v>
@@ -35576,19 +35576,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L14" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P15" t="n">
-        <v>442.7574853255731</v>
+        <v>435.2356237478842</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O16" t="n">
-        <v>270.4259204819591</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35886,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36059,10 +36059,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>104.4093672264672</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O20" t="n">
-        <v>324.7212149383461</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,16 +36281,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>269.6796503957549</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>192.1793661700374</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36299,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>167.4878420635541</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M23" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O23" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M24" t="n">
-        <v>556.227813115594</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N24" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36673,22 +36673,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>67.90411371775849</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L29" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M30" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N32" t="n">
-        <v>48.74406945557163</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>444.6058781505031</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37308,22 +37308,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M35" t="n">
-        <v>167.4878420635542</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P35" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M38" t="n">
-        <v>144.2794790315867</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L39" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M39" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>144.2794790315867</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155939</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M42" t="n">
-        <v>158.2737632597939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937746</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -38019,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>144.279479031587</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M45" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>357.2118800478177</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
